--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N2">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q2">
-        <v>3.452473076064889</v>
+        <v>1.141817414374222</v>
       </c>
       <c r="R2">
-        <v>31.072257684584</v>
+        <v>10.276356729368</v>
       </c>
       <c r="S2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="T2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N3">
         <v>18.461809</v>
       </c>
       <c r="O3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q3">
         <v>2.141553433503111</v>
@@ -632,10 +632,10 @@
         <v>19.273980901528</v>
       </c>
       <c r="S3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="T3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>7.105843</v>
       </c>
       <c r="O4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q4">
         <v>0.8242714716951111</v>
@@ -694,10 +694,10 @@
         <v>7.418443245256</v>
       </c>
       <c r="S4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="T4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
     </row>
   </sheetData>
